--- a/medicine/Sexualité et sexologie/L'Art_d'aimer_(film,_1983)/L'Art_d'aimer_(film,_1983).xlsx
+++ b/medicine/Sexualité et sexologie/L'Art_d'aimer_(film,_1983)/L'Art_d'aimer_(film,_1983).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Art_d%27aimer_(film,_1983)</t>
+          <t>L'Art_d'aimer_(film,_1983)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Art d'aimer (Ars amandi) est un film franco- italien, réalisé par Walerian Borowczyk, sorti en 1983.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Art_d%27aimer_(film,_1983)</t>
+          <t>L'Art_d'aimer_(film,_1983)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'Antiquité, en l'an XIII du premier siècle de notre ère dans la mythique cité de Rome, plusieurs jeunes hommes décident de suivre l'enseignement du poète Ovide, afin d'apprendre l'art de séduire les femmes. Claudia, très belle femme brune, dont l'époux Marcarius est parti à la guerre, éprouve de la solitude. Cornelius, l'un des jeunes élèves d'Ovide, entreprend de tester sur elle ses connaissances. Mais la fourbe mère de Marcarius, aidée d'un perroquet espion, veille farouchement sur sa belle-fille. Cornélius finit cependant par conquérir Claudia. Marcarius découvre cet adultère et décide d'exercer sa vengeance sur Ovide...
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Art_d%27aimer_(film,_1983)</t>
+          <t>L'Art_d'aimer_(film,_1983)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'art d'aimer
 Titre italien : Ars amandi
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Art_d%27aimer_(film,_1983)</t>
+          <t>L'Art_d'aimer_(film,_1983)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marina Pierro : Claudia
 Michele Placidol : Marcarius
